--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4696.803920816788</v>
+        <v>934663.9802425414</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4696.803920816788</v>
+        <v>934663.9802425414</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96169.03877616473</v>
+        <v>6685139.612216295</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96169.03877616473</v>
+        <v>6685139.612216295</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495431259.717495</v>
+        <v>53707219.72523725</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16634.18796603459</v>
+        <v>1318723.524172807</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31747.0095963824</v>
+        <v>2375200.847743871</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46829.47310393383</v>
+        <v>3431678.171314936</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62054.12549107781</v>
+        <v>4487220.563600793</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77278.77787822174</v>
+        <v>5542762.955886649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92503.43026536566</v>
+        <v>6598305.348172504</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>107728.0826525096</v>
+        <v>7653847.740458354</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>122952.7350396536</v>
+        <v>8709390.132744202</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138187.4886354652</v>
+        <v>9760513.451419206</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153426.6769787516</v>
+        <v>10812519.28484168</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>168665.8731129109</v>
+        <v>11864525.11826416</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>183905.0692470703</v>
+        <v>12916530.95168663</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>199144.2653812297</v>
+        <v>13968536.78510912</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>214383.461515389</v>
+        <v>15020542.61853161</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>229622.6576495485</v>
+        <v>16072548.4519541</v>
       </c>
     </row>
   </sheetData>
